--- a/irrigationANDthreescenarios.xlsx
+++ b/irrigationANDthreescenarios.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +97,11 @@
       <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +129,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,33 +141,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,97 +404,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11057.61664</c:v>
+                  <c:v>11.04180602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11012.72459</c:v>
+                  <c:v>10.99697816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10967.83254</c:v>
+                  <c:v>10.95215029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10922.94049</c:v>
+                  <c:v>10.90732243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10900.49446</c:v>
+                  <c:v>10.8849085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10878.04843</c:v>
+                  <c:v>10.86249457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11041.79928</c:v>
+                  <c:v>11.02601128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11205.55013</c:v>
+                  <c:v>11.18952799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11369.30098</c:v>
+                  <c:v>11.3530447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11451.1764</c:v>
+                  <c:v>11.43480305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11533.05183</c:v>
+                  <c:v>11.51656141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11891.7745</c:v>
+                  <c:v>11.87477117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12250.49718</c:v>
+                  <c:v>12.23298093</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12609.21986</c:v>
+                  <c:v>12.59119069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12788.5812</c:v>
+                  <c:v>12.77029557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12967.94254</c:v>
+                  <c:v>12.94940045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13293.31108</c:v>
+                  <c:v>13.27430377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12317.20545</c:v>
+                  <c:v>12.29959381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11991.8369</c:v>
+                  <c:v>11.97469049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11829.15263</c:v>
+                  <c:v>11.81223883</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11666.46836</c:v>
+                  <c:v>11.64978717</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11035.41349</c:v>
+                  <c:v>11.01963461</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10404.35862</c:v>
+                  <c:v>10.38948205</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9773.303752</c:v>
+                  <c:v>9.759329492000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9457.776318</c:v>
+                  <c:v>9.444253211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9142.248884</c:v>
+                  <c:v>9.129176931</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9232.674543</c:v>
+                  <c:v>9.219473295</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9323.100201</c:v>
+                  <c:v>9.309769659</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9413.52586</c:v>
+                  <c:v>9.400066024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9458.738689</c:v>
+                  <c:v>9.445214206</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9503.951518</c:v>
+                  <c:v>9.490362388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-357126832"/>
-        <c:axId val="-357122832"/>
+        <c:axId val="-353059984"/>
+        <c:axId val="-353027104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-357126832"/>
+        <c:axId val="-353059984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,12 +626,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-357122832"/>
+        <c:crossAx val="-353027104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-357122832"/>
+        <c:axId val="-353027104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-357126832"/>
+        <c:crossAx val="-353059984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1075,97 +1083,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>11057.61664</c:v>
+                  <c:v>11.04180602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11012.72459</c:v>
+                  <c:v>10.99697816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10967.83254</c:v>
+                  <c:v>10.95215029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10922.94049</c:v>
+                  <c:v>10.90732243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10900.49446</c:v>
+                  <c:v>10.8849085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10878.04843</c:v>
+                  <c:v>10.86249457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11041.79928</c:v>
+                  <c:v>11.02601128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11205.55013</c:v>
+                  <c:v>11.18952799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11369.30098</c:v>
+                  <c:v>11.3530447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11451.1764</c:v>
+                  <c:v>11.43480305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11533.05183</c:v>
+                  <c:v>11.51656141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11891.7745</c:v>
+                  <c:v>11.87477117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12250.49718</c:v>
+                  <c:v>12.23298093</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12609.21986</c:v>
+                  <c:v>12.59119069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12788.5812</c:v>
+                  <c:v>12.77029557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12967.94254</c:v>
+                  <c:v>12.94940045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13293.31108</c:v>
+                  <c:v>13.27430377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12317.20545</c:v>
+                  <c:v>12.29959381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11991.8369</c:v>
+                  <c:v>11.97469049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11829.15263</c:v>
+                  <c:v>11.81223883</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11666.46836</c:v>
+                  <c:v>11.64978717</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11035.41349</c:v>
+                  <c:v>11.01963461</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10404.35862</c:v>
+                  <c:v>10.38948205</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9773.303752</c:v>
+                  <c:v>9.759329492000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9457.776318</c:v>
+                  <c:v>9.444253211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9142.248884</c:v>
+                  <c:v>9.129176931</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9232.674543</c:v>
+                  <c:v>9.219473295</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9323.100201</c:v>
+                  <c:v>9.309769659</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9413.52586</c:v>
+                  <c:v>9.400066024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9458.738689</c:v>
+                  <c:v>9.445214206</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9503.951518</c:v>
+                  <c:v>9.490362388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,67 +1385,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="30">
-                  <c:v>9503.951518</c:v>
+                  <c:v>9.490362388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9441.221316156854</c:v>
+                  <c:v>9.441221316</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9378.491114313711</c:v>
+                  <c:v>9.378491114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9315.760912470565</c:v>
+                  <c:v>9.315760912</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9253.030710627421</c:v>
+                  <c:v>9.253030711</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9190.300508784276</c:v>
+                  <c:v>9.190300509</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9127.57030694113</c:v>
+                  <c:v>9.127570307</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9064.840105097986</c:v>
+                  <c:v>9.064840105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9002.109903254841</c:v>
+                  <c:v>9.002109903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8939.379701411697</c:v>
+                  <c:v>8.939379701</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8876.649499568551</c:v>
+                  <c:v>8.8766495</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8813.919297725406</c:v>
+                  <c:v>8.813919298</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8751.189095882262</c:v>
+                  <c:v>8.751189096</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8688.458894039117</c:v>
+                  <c:v>8.688458894</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8625.72869219597</c:v>
+                  <c:v>8.625728692</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8562.998490352827</c:v>
+                  <c:v>8.56299849</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8500.26828850968</c:v>
+                  <c:v>8.500268289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8437.538086666538</c:v>
+                  <c:v>8.437538087</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8374.807884823393</c:v>
+                  <c:v>8.374807885</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8312.077682980247</c:v>
+                  <c:v>8.312077683</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8249.347481137103</c:v>
+                  <c:v>8.249347480999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,67 +1657,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="30">
-                  <c:v>9503.951518</c:v>
+                  <c:v>9.490362388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3534.793260769127</c:v>
+                  <c:v>3.5347932607104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3511.307073199054</c:v>
+                  <c:v>3.511307073081601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3487.82088562898</c:v>
+                  <c:v>3.487820885452801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3464.334698058907</c:v>
+                  <c:v>3.4643346981984</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3440.848510488833</c:v>
+                  <c:v>3.440848510569601</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3417.36232291876</c:v>
+                  <c:v>3.4173623229408</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3393.876135348687</c:v>
+                  <c:v>3.393876135312</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3370.389947778613</c:v>
+                  <c:v>3.370389947683201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3346.90376020854</c:v>
+                  <c:v>3.346903760054401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3323.417572638466</c:v>
+                  <c:v>3.3234175728</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3299.931385068393</c:v>
+                  <c:v>3.299931385171201</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3276.44519749832</c:v>
+                  <c:v>3.2764451975424</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3252.959009928246</c:v>
+                  <c:v>3.2529590099136</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3229.472822358172</c:v>
+                  <c:v>3.229472822284801</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3205.986634788099</c:v>
+                  <c:v>3.205986634656001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3182.500447218025</c:v>
+                  <c:v>3.1825004474016</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3159.014259647953</c:v>
+                  <c:v>3.159014259772801</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3135.52807207788</c:v>
+                  <c:v>3.135528072144</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3112.041884507805</c:v>
+                  <c:v>3.1120418845152</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3088.555696937732</c:v>
+                  <c:v>3.088555696886401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1929,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="30">
-                  <c:v>9503.951518</c:v>
+                  <c:v>9.490362388</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.0</c:v>
@@ -1996,11 +2004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-358539072"/>
-        <c:axId val="-358536432"/>
+        <c:axId val="-353006672"/>
+        <c:axId val="-353003728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-358539072"/>
+        <c:axId val="-353006672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,12 +2120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358536432"/>
+        <c:crossAx val="-353003728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-358536432"/>
+        <c:axId val="-353003728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358539072"/>
+        <c:crossAx val="-353006672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3756,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="112" workbookViewId="0">
+      <selection sqref="A1:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3790,9 +3798,9 @@
         <v>1985</v>
       </c>
       <c r="B2" s="1">
-        <v>11057.61664</v>
-      </c>
-      <c r="L2" s="6"/>
+        <v>11.041806019999999</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3800,7 +3808,7 @@
         <v>1986</v>
       </c>
       <c r="B3" s="1">
-        <v>11012.72459</v>
+        <v>10.996978159999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -3809,9 +3817,9 @@
         <v>1987</v>
       </c>
       <c r="B4" s="1">
-        <v>10967.832539999999</v>
-      </c>
-      <c r="K4" s="7"/>
+        <v>10.952150290000001</v>
+      </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3819,7 +3827,7 @@
         <v>1988</v>
       </c>
       <c r="B5" s="1">
-        <v>10922.940490000001</v>
+        <v>10.907322430000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3828,7 +3836,7 @@
         <v>1989</v>
       </c>
       <c r="B6" s="1">
-        <v>10900.49446</v>
+        <v>10.8849085</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3837,7 +3845,7 @@
         <v>1990</v>
       </c>
       <c r="B7" s="1">
-        <v>10878.048430000001</v>
+        <v>10.862494570000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3846,7 +3854,7 @@
         <v>1991</v>
       </c>
       <c r="B8" s="1">
-        <v>11041.799279999999</v>
+        <v>11.026011280000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3855,7 +3863,7 @@
         <v>1992</v>
       </c>
       <c r="B9" s="1">
-        <v>11205.55013</v>
+        <v>11.18952799</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3864,7 +3872,7 @@
         <v>1993</v>
       </c>
       <c r="B10" s="1">
-        <v>11369.30098</v>
+        <v>11.3530447</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3873,7 +3881,7 @@
         <v>1994</v>
       </c>
       <c r="B11" s="1">
-        <v>11451.1764</v>
+        <v>11.434803049999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3882,7 +3890,7 @@
         <v>1995</v>
       </c>
       <c r="B12" s="1">
-        <v>11533.05183</v>
+        <v>11.51656141</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3891,7 +3899,7 @@
         <v>1996</v>
       </c>
       <c r="B13" s="1">
-        <v>11891.7745</v>
+        <v>11.874771170000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3900,7 +3908,7 @@
         <v>1997</v>
       </c>
       <c r="B14" s="1">
-        <v>12250.49718</v>
+        <v>12.23298093</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3909,7 +3917,7 @@
         <v>1998</v>
       </c>
       <c r="B15" s="1">
-        <v>12609.219859999999</v>
+        <v>12.591190689999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3918,7 +3926,7 @@
         <v>1999</v>
       </c>
       <c r="B16" s="1">
-        <v>12788.581200000001</v>
+        <v>12.77029557</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3927,7 +3935,7 @@
         <v>2000</v>
       </c>
       <c r="B17" s="1">
-        <v>12967.94254</v>
+        <v>12.949400450000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,7 +3944,7 @@
         <v>2001</v>
       </c>
       <c r="B18" s="1">
-        <v>13293.311079999999</v>
+        <v>13.27430377</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,7 +3953,7 @@
         <v>2002</v>
       </c>
       <c r="B19" s="1">
-        <v>12317.205449999999</v>
+        <v>12.299593809999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3954,7 +3962,7 @@
         <v>2003</v>
       </c>
       <c r="B20" s="1">
-        <v>11991.8369</v>
+        <v>11.97469049</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3963,7 +3971,7 @@
         <v>2004</v>
       </c>
       <c r="B21" s="1">
-        <v>11829.15263</v>
+        <v>11.81223883</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3972,7 +3980,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="1">
-        <v>11666.468360000001</v>
+        <v>11.64978717</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3981,7 +3989,7 @@
         <v>2006</v>
       </c>
       <c r="B23" s="1">
-        <v>11035.413490000001</v>
+        <v>11.019634610000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3990,7 +3998,7 @@
         <v>2007</v>
       </c>
       <c r="B24" s="1">
-        <v>10404.358620000001</v>
+        <v>10.38948205</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3999,7 +4007,7 @@
         <v>2008</v>
       </c>
       <c r="B25" s="1">
-        <v>9773.3037519999998</v>
+        <v>9.7593294920000009</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4008,7 +4016,7 @@
         <v>2009</v>
       </c>
       <c r="B26" s="1">
-        <v>9457.7763180000002</v>
+        <v>9.4442532109999995</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4017,7 +4025,7 @@
         <v>2010</v>
       </c>
       <c r="B27" s="1">
-        <v>9142.2488840000005</v>
+        <v>9.1291769309999999</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -4027,7 +4035,7 @@
         <v>2011</v>
       </c>
       <c r="B28" s="1">
-        <v>9232.6745429999992</v>
+        <v>9.2194732950000002</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -4037,7 +4045,7 @@
         <v>2012</v>
       </c>
       <c r="B29" s="1">
-        <v>9323.1002009999993</v>
+        <v>9.3097696590000005</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -4047,7 +4055,7 @@
         <v>2013</v>
       </c>
       <c r="B30" s="1">
-        <v>9413.5258599999997</v>
+        <v>9.4000660239999991</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -4057,7 +4065,7 @@
         <v>2014</v>
       </c>
       <c r="B31" s="1">
-        <v>9458.7386889999998</v>
+        <v>9.4452142059999993</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -4066,17 +4074,17 @@
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="B32" s="5">
-        <v>9503.9515179999999</v>
-      </c>
-      <c r="C32" s="5">
-        <v>9503.9515179999999</v>
-      </c>
-      <c r="D32" s="8">
-        <v>9503.9515179999999</v>
-      </c>
-      <c r="E32" s="8">
-        <v>9503.9515179999999</v>
+      <c r="B32" s="1">
+        <v>9.4903623879999994</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.4903623879999994</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9.4903623879999994</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.4903623879999994</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4084,12 +4092,12 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="C33">
-        <v>9441.2213161568543</v>
+      <c r="C33" s="7">
+        <v>9.441221316</v>
       </c>
       <c r="D33">
         <f>C33-(1-0.3744)*C33</f>
-        <v>3534.7932607691273</v>
+        <v>3.5347932607104005</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4100,12 +4108,12 @@
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="C34">
-        <v>9378.4911143137106</v>
+      <c r="C34" s="7">
+        <v>9.3784911139999991</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D52" si="1">C34-(1-0.3744)*C34</f>
-        <v>3511.3070731990538</v>
+        <f>C34-(1-0.3744)*C34</f>
+        <v>3.5113070730816007</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4116,12 +4124,12 @@
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="C35">
-        <v>9315.760912470565</v>
+      <c r="C35" s="7">
+        <v>9.315760912</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>3487.8208856289802</v>
+        <f t="shared" ref="D34:D52" si="1">C35-(1-0.3744)*C35</f>
+        <v>3.487820885452801</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4132,12 +4140,12 @@
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="C36">
-        <v>9253.0307106274213</v>
+      <c r="C36" s="7">
+        <v>9.2530307109999992</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3464.3346980589067</v>
+        <v>3.4643346981984005</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4148,12 +4156,12 @@
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="C37">
-        <v>9190.3005087842757</v>
+      <c r="C37" s="7">
+        <v>9.1903005090000001</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3440.8485104888332</v>
+        <v>3.4408485105696007</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4164,12 +4172,12 @@
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="C38">
-        <v>9127.5703069411302</v>
+      <c r="C38" s="7">
+        <v>9.1275703069999992</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3417.3623229187597</v>
+        <v>3.4173623229408001</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4180,12 +4188,12 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="C39">
-        <v>9064.8401050979865</v>
+      <c r="C39" s="7">
+        <v>9.064840105</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>3393.8761353486871</v>
+        <v>3.3938761353120004</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4196,12 +4204,12 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="C40">
-        <v>9002.1099032548409</v>
+      <c r="C40" s="7">
+        <v>9.0021099029999991</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>3370.3899477786126</v>
+        <v>3.3703899476832007</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -4212,12 +4220,12 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="C41">
-        <v>8939.3797014116972</v>
+      <c r="C41" s="7">
+        <v>8.939379701</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>3346.90376020854</v>
+        <v>3.3469037600544009</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -4228,12 +4236,12 @@
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="C42">
-        <v>8876.6494995685516</v>
+      <c r="C42" s="7">
+        <v>8.8766494999999992</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>3323.4175726384665</v>
+        <v>3.3234175728000004</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4244,12 +4252,12 @@
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="C43">
-        <v>8813.9192977254061</v>
+      <c r="C43" s="7">
+        <v>8.8139192980000001</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>3299.931385068393</v>
+        <v>3.2999313851712007</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4260,12 +4268,12 @@
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="C44">
-        <v>8751.1890958822623</v>
+      <c r="C44" s="7">
+        <v>8.7511890959999992</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>3276.4451974983194</v>
+        <v>3.2764451975424</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4276,12 +4284,12 @@
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="C45">
-        <v>8688.4588940391168</v>
+      <c r="C45" s="7">
+        <v>8.688458894</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>3252.9590099282459</v>
+        <v>3.2529590099136003</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4292,12 +4300,12 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="C46">
-        <v>8625.7286921959712</v>
+      <c r="C46" s="7">
+        <v>8.6257286919999991</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>3229.4728223581724</v>
+        <v>3.2294728222848006</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4308,12 +4316,12 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="C47">
-        <v>8562.9984903528275</v>
+      <c r="C47" s="7">
+        <v>8.56299849</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>3205.9866347880989</v>
+        <v>3.2059866346560009</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4324,12 +4332,12 @@
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="C48">
-        <v>8500.268288509682</v>
+      <c r="C48" s="7">
+        <v>8.5002682889999992</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>3182.5004472180253</v>
+        <v>3.1825004474016003</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4340,12 +4348,12 @@
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="C49">
-        <v>8437.5380866665382</v>
+      <c r="C49" s="7">
+        <v>8.4375380870000001</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>3159.0142596479527</v>
+        <v>3.1590142597728006</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4356,12 +4364,12 @@
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="C50">
-        <v>8374.8078848233927</v>
+      <c r="C50" s="7">
+        <v>8.3748078849999992</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>3135.5280720778792</v>
+        <v>3.135528072144</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4372,12 +4380,12 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="C51">
-        <v>8312.0776829802471</v>
+      <c r="C51" s="7">
+        <v>8.3120776830000001</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>3112.0418845078048</v>
+        <v>3.1120418845152003</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4388,12 +4396,12 @@
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="C52">
-        <v>8249.3474811371034</v>
+      <c r="C52" s="7">
+        <v>8.2493474809999991</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>3088.5556969377321</v>
+        <v>3.0885556968864005</v>
       </c>
       <c r="E52">
         <v>0</v>
